--- a/Data/EC/NIT-9009945713.xlsx
+++ b/Data/EC/NIT-9009945713.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EE58E0-E72F-4761-870B-4A449D92A60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5527F7E7-8257-4BA6-B716-B35F00CD9CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B58125D6-02B4-4A7D-AC8B-6BE825244C29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B4AB829-67F9-42CC-BE23-94BCE9DE6CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,46 +80,46 @@
     <t>IYOSEIDIS PAEZ JULIO</t>
   </si>
   <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -163,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF16ED9-7BBB-AD9B-AF1A-4DF9E8F25AFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F04B4227-6E2F-3427-BA95-6B6A5725C792}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,28 +884,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F3DCE4-6283-4A57-A499-6DBCC543CA9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169C3B83-59B0-4349-BF86-5D8F909D309A}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -918,7 +918,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -929,7 +929,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -940,7 +940,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -951,8 +951,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -967,8 +967,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -983,8 +983,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -999,8 +999,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1065,13 +1065,13 @@
         <v>1193</v>
       </c>
       <c r="G16" s="18">
-        <v>895000</v>
+        <v>815000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1209,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
         <v>37</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="32" t="s">
         <v>36</v>
       </c>

--- a/Data/EC/NIT-9009945713.xlsx
+++ b/Data/EC/NIT-9009945713.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5527F7E7-8257-4BA6-B716-B35F00CD9CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86AC5F1A-AAFF-458A-9EC4-90FF3DC7F8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B4AB829-67F9-42CC-BE23-94BCE9DE6CCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ACA72B02-634A-4F9C-A282-DD5C0715FC38}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,46 +80,46 @@
     <t>IYOSEIDIS PAEZ JULIO</t>
   </si>
   <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
     <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -163,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +218,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +433,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +477,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,13 +518,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F04B4227-6E2F-3427-BA95-6B6A5725C792}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B31E6F-29BD-69FA-9558-784CB3B6A7C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -555,7 +555,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -884,28 +884,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169C3B83-59B0-4349-BF86-5D8F909D309A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B623EEA-1943-4988-913D-EFB8304DBF0A}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -918,7 +918,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -929,7 +929,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -940,7 +940,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -951,8 +951,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -967,8 +967,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -983,8 +983,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -999,8 +999,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1065,13 +1065,13 @@
         <v>1193</v>
       </c>
       <c r="G16" s="18">
-        <v>815000</v>
+        <v>895000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1088,13 +1088,13 @@
         <v>47600</v>
       </c>
       <c r="G17" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1111,13 +1111,13 @@
         <v>47600</v>
       </c>
       <c r="G18" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1134,13 +1134,13 @@
         <v>47600</v>
       </c>
       <c r="G19" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1157,13 +1157,13 @@
         <v>47600</v>
       </c>
       <c r="G20" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1180,13 +1180,13 @@
         <v>47600</v>
       </c>
       <c r="G21" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1203,13 +1203,13 @@
         <v>47600</v>
       </c>
       <c r="G22" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1226,13 +1226,13 @@
         <v>47600</v>
       </c>
       <c r="G23" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1249,13 +1249,13 @@
         <v>47600</v>
       </c>
       <c r="G24" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1272,13 +1272,13 @@
         <v>47600</v>
       </c>
       <c r="G25" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1295,13 +1295,13 @@
         <v>47600</v>
       </c>
       <c r="G26" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1318,13 +1318,13 @@
         <v>47600</v>
       </c>
       <c r="G27" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1341,13 +1341,13 @@
         <v>47600</v>
       </c>
       <c r="G28" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1364,13 +1364,13 @@
         <v>47600</v>
       </c>
       <c r="G29" s="18">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
@@ -1387,13 +1387,13 @@
         <v>47600</v>
       </c>
       <c r="G30" s="24">
-        <v>1190000</v>
+        <v>1543950</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="32" t="s">
         <v>37</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="32" t="s">
         <v>36</v>
       </c>
